--- a/extensions/fractionalUpdating-August2016/experiments/SimulatedDataExp-Binomial.xlsx
+++ b/extensions/fractionalUpdating-August2016/experiments/SimulatedDataExp-Binomial.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Chart11" sheetId="15" r:id="rId1"/>
-    <sheet name="Chart9" sheetId="13" r:id="rId2"/>
-    <sheet name="Chart12" sheetId="16" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="12" r:id="rId6"/>
+    <sheet name="Chart9 (2)" sheetId="17" r:id="rId1"/>
+    <sheet name="Chart11" sheetId="15" r:id="rId2"/>
+    <sheet name="Chart9" sheetId="13" r:id="rId3"/>
+    <sheet name="Chart12" sheetId="16" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="12" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -321,11 +322,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$A$1</c:f>
+              <c:f>Sheet3!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SVB</c:v>
+                  <c:v>Real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -335,309 +336,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$A$2:$A$101</c:f>
+              <c:f>Sheet3!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>100.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>300.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>400.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>600.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>700.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>800.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>900.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1100.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1200.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1300.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1400.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1500.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1600.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1700.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1800.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1900.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2100.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2200.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2300.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2400.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2500.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2600.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2700.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2800.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2900.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3000.0</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3100.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3200.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3300.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3400.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3500.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>3600.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3700.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>3800.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3900.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4000.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4100.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4200.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4300.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4400.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>4500.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4600.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4700.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4800.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4900.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5000.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5100.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5200.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5300.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5400.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5500.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5600.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5700.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5800.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5900.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>6000.0</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>6100.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>6200.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>6300.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>6400.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>6500.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>6600.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>6700.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>6800.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>6900.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>7000.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>7100.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7200.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7300.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>7400.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>7500.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>7600.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>7700.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>7800.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7900.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>8000.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>8100.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>8200.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>8300.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>8400.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>8500.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8600.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>8700.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>8800.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8900.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9000.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9100.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>9200.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>9300.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>9400.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>9500.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>9600.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>9700.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>9800.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>9900.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10000.0</c:v>
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -649,11 +650,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$B$1</c:f>
+              <c:f>Sheet3!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Population-0.1-1000</c:v>
+                  <c:v>SVB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -663,309 +664,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$101</c:f>
+              <c:f>Sheet3!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.192307692307692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.17156862745098</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.167763157894736</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.173267326732673</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.174603174603174</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.185430463576158</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.194602272727272</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.196517412935323</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.195796460176991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.192231075697211</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.194746376811594</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.198504983388704</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.206288343558282</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.207264957264957</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.201462765957446</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.203865336658354</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.200117370892018</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.199556541019955</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.198529411764705</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.202095808383233</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.202471482889733</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.198729582577132</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.197482638888888</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.198835274542429</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.200079872204472</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.199308755760368</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.199704142011834</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.199358059914408</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.200068870523416</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.201065246338215</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.209085051546391</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.220349563046192</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.229418886198547</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.237367802585193</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.245719178082191</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.253329633740288</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.260799136069114</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.266561514195583</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.274846311475409</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.280969030969031</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.286793372319688</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.292578496669838</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.296236059479553</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.299727520435967</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.303285968028419</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.309296264118158</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.313350340136054</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.317027477102414</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.321166394779771</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.325339728217426</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.328173981191222</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.331283627978478</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.334841628959276</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.338823094004441</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.343204941860465</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.345289079229122</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.347826086956521</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.351654031702274</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.355691056910569</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.359427048634243</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.367463958060288</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.374597034171502</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.380552030456852</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.386164896939412</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.393296432964329</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.399606299212598</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.405429594272076</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.411375661375661</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.417584009269988</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.423329525985151</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.428913288288288</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.434480843975569</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.438663745892661</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.443679092382495</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.448160980810234</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.453445554971067</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.457814122533748</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.461173757047667</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.4665991902834</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.470889555222388</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.475444225074037</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.479644076060458</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.483501926782273</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.487743931461208</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.49165098777046</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.494886099488609</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.498161764705882</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.501022262607905</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.504380053908355</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.507552199022656</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.510544815465729</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.513255106475445</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.516874462596732</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.52052318162484</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.523358585858585</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.52582257392753</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.529060181368507</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.532333741330069</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.535036348949919</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1000.0</c:v>
+                  <c:v>0.538084766093562</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -977,11 +978,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet2!$C$1</c:f>
+              <c:f>Sheet3!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SVBFading-0.9</c:v>
+                  <c:v>Population-0.1-1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -991,309 +992,1621 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$101</c:f>
+              <c:f>Sheet3!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>102.0</c:v>
+                  <c:v>0.192307692307692</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>191.8</c:v>
+                  <c:v>0.171134020618556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>272.62</c:v>
+                  <c:v>0.167563636363636</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>345.358</c:v>
+                  <c:v>0.174394941075021</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>410.8222</c:v>
+                  <c:v>0.176065391405286</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>469.73998</c:v>
+                  <c:v>0.189869032226663</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>522.765982</c:v>
+                  <c:v>0.201543205661142</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>570.4893838</c:v>
+                  <c:v>0.203225868219321</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>613.4404454200001</c:v>
+                  <c:v>0.201273359016952</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>652.096400878</c:v>
+                  <c:v>0.195157513773109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>686.8867607902</c:v>
+                  <c:v>0.198933557859581</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>718.19808471118</c:v>
+                  <c:v>0.204791711712336</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>746.378276240062</c:v>
+                  <c:v>0.217646792620995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>771.740448616056</c:v>
+                  <c:v>0.218096028445828</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>794.5664037544503</c:v>
+                  <c:v>0.205946255844741</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>815.1097633790053</c:v>
+                  <c:v>0.210249425016345</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>833.5987870411048</c:v>
+                  <c:v>0.201997143963339</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>850.2389083369944</c:v>
+                  <c:v>0.20073176573926</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>865.215017503295</c:v>
+                  <c:v>0.198483594552914</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>878.6935157529656</c:v>
+                  <c:v>0.20672481702818</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>890.8241641776691</c:v>
+                  <c:v>0.207222064750819</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>901.7417477599021</c:v>
+                  <c:v>0.197719162937924</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>911.567572983912</c:v>
+                  <c:v>0.19482306391037</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>920.4108156855208</c:v>
+                  <c:v>0.198761207419805</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>928.3697341169687</c:v>
+                  <c:v>0.202241511294155</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>935.5327607052719</c:v>
+                  <c:v>0.20000064267839</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>941.9794846347447</c:v>
+                  <c:v>0.201184694233803</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>947.7815361712703</c:v>
+                  <c:v>0.20013501493214</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>953.0033825541432</c:v>
+                  <c:v>0.202336339348335</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>957.703044298729</c:v>
+                  <c:v>0.205336968506706</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>961.932739868856</c:v>
+                  <c:v>0.230790424373848</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>965.7394658819704</c:v>
+                  <c:v>0.265883684315579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>969.1655192937734</c:v>
+                  <c:v>0.292094105415582</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>972.248967364396</c:v>
+                  <c:v>0.313477045746105</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>975.0240706279564</c:v>
+                  <c:v>0.335670717788516</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>977.5216635651608</c:v>
+                  <c:v>0.354518598792364</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>979.7694972086446</c:v>
+                  <c:v>0.372416225361362</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>981.7925474877802</c:v>
+                  <c:v>0.383381874950244</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>983.6132927390021</c:v>
+                  <c:v>0.404350836375348</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>985.251963465102</c:v>
+                  <c:v>0.416080468190812</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>986.7267671185918</c:v>
+                  <c:v>0.426603886382882</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>988.0540904067327</c:v>
+                  <c:v>0.437056187317938</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>989.2486813660594</c:v>
+                  <c:v>0.43838474745645</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>990.3238132294535</c:v>
+                  <c:v>0.439577716033378</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>991.2914319065082</c:v>
+                  <c:v>0.441653929605757</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>992.1622887158575</c:v>
+                  <c:v>0.455565506528549</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>992.9460598442718</c:v>
+                  <c:v>0.46004046623534</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>993.6514538598447</c:v>
+                  <c:v>0.463059536538763</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>994.2863084738602</c:v>
+                  <c:v>0.468778231922611</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>994.8576776264742</c:v>
+                  <c:v>0.47491998363844</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>995.3719098638269</c:v>
+                  <c:v>0.474437709398381</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>995.8347188774442</c:v>
+                  <c:v>0.476004436859467</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>996.2512469896998</c:v>
+                  <c:v>0.480412520684588</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>996.6261222907298</c:v>
+                  <c:v>0.487374796687619</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>996.9635100616568</c:v>
+                  <c:v>0.496633508852522</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>997.2671590554912</c:v>
+                  <c:v>0.492976116800451</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>997.5404431499421</c:v>
+                  <c:v>0.492681766491195</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>997.786398834948</c:v>
+                  <c:v>0.500402762422389</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>998.0077589514532</c:v>
+                  <c:v>0.509344412072713</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>998.2069830563078</c:v>
+                  <c:v>0.516390710178461</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>998.386284750677</c:v>
+                  <c:v>0.549665798631744</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>998.5476562756094</c:v>
+                  <c:v>0.575613330985847</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>998.6928906480484</c:v>
+                  <c:v>0.592975049887089</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>998.8236015832437</c:v>
+                  <c:v>0.607599100701007</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>998.9412414249193</c:v>
+                  <c:v>0.631725247059875</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>999.0471172824274</c:v>
+                  <c:v>0.649446072429545</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>999.1424055541846</c:v>
+                  <c:v>0.663397871195759</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>999.2281649987661</c:v>
+                  <c:v>0.677945786863537</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>999.3053484988895</c:v>
+                  <c:v>0.694026901055006</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>999.3748136490006</c:v>
+                  <c:v>0.706504507964762</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>999.4373322841006</c:v>
+                  <c:v>0.717732873811588</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>999.4935990556906</c:v>
+                  <c:v>0.728833723881585</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>999.5442391501216</c:v>
+                  <c:v>0.729855198689723</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>999.5898152351094</c:v>
+                  <c:v>0.737749405210205</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>999.6308337115984</c:v>
+                  <c:v>0.741864427349351</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>999.6677503404386</c:v>
+                  <c:v>0.752542083766736</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>999.7009753063947</c:v>
+                  <c:v>0.756173421483732</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>999.7308777757552</c:v>
+                  <c:v>0.752467434330573</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>999.7577899981797</c:v>
+                  <c:v>0.766068600933018</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>999.7820109983617</c:v>
+                  <c:v>0.770339164155619</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>999.8038098985256</c:v>
+                  <c:v>0.777171127569554</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>999.8234289086731</c:v>
+                  <c:v>0.781327257329315</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>999.8410860178059</c:v>
+                  <c:v>0.78307528697988</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>999.8569774160253</c:v>
+                  <c:v>0.788633093602833</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>999.8712796744228</c:v>
+                  <c:v>0.791642680913719</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>999.8841517069806</c:v>
+                  <c:v>0.789370580347042</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>999.8957365362824</c:v>
+                  <c:v>0.788321859377271</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>999.9061628826543</c:v>
+                  <c:v>0.784389703515283</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>999.9155465943888</c:v>
+                  <c:v>0.785831332786923</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>999.92399193495</c:v>
+                  <c:v>0.786132684524342</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>999.931592741455</c:v>
+                  <c:v>0.785407812788117</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>999.9384334673095</c:v>
+                  <c:v>0.782763283324918</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>999.9445901205786</c:v>
+                  <c:v>0.789347876968648</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>999.9501311085207</c:v>
+                  <c:v>0.796270007566401</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>999.9551179976687</c:v>
+                  <c:v>0.795527435691893</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>999.9596061979018</c:v>
+                  <c:v>0.79187095902714</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>999.9636455781117</c:v>
+                  <c:v>0.796548574708837</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>999.9672810203006</c:v>
+                  <c:v>0.801754445036879</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>999.9705529182705</c:v>
+                  <c:v>0.801459469950023</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>999.9734976264435</c:v>
+                  <c:v>0.805178163167863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Population-1000-0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.271428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.221004184100418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.203233731936737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.200458257409053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.196824960187993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20392474362413</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.210494533847104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.210576188578797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.208430089704362</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.203685581116439</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.205296053729382</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.208346916537532</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.215685661520863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.216088724519847</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.209492087446449</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.211568230192695</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.207196201180514</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20625069751471</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.204840614499799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.208405498767146</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.208547612780746</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.204229677425159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.20265891507935</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.203965721890442</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.205169125321893</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.204143731049699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.204435040041567</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.203903399223749</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.204576261743668</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.205582900820326</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.214622202016811</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.227399771311041</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.237659008255495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.246634753780422</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.256096624558756</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.264708145094957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.273172053809393</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.279634590051966</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.289115991641014</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.296032648678735</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.302610682252791</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.309161131941579</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.313151080440765</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.316958516319482</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.320867379188341</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.327811942580479</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.332355657386353</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.336449551459027</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.341138091371445</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.345887470764349</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.348966864147384</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.352412745077445</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.35644613691291</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.361037259402259</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.36615847774186</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.36833106405852</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.371107638765476</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.375581338161565</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.380343325051265</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.384724154898412</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.394798174236118</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.40368409252232</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.411012463547278</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.417896683207269</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.426837513487893</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.434681331256128</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.441879098136726</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.449259241819211</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.45701355430145</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.464146035946584</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.471070576783224</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.47798847988436</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.482991730656614</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.489178624471339</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.494631518675102</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.501235816363265</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.506555840812259</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.510454666831628</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.517330274199571</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.522588362442257</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.528245197139597</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.533403507186431</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.538080192503026</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.543336449460922</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.548116627253892</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.551921396894851</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.555804154173584</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.559085983482127</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.563129764239488</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.566911339534209</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.570438864835012</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.573555486979027</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.578072995127933</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.582650487836024</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.585994335341345</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.588782053198736</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.592784565747644</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.596857995499957</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.600054653968544</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.603809470127935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVBFading-0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$2:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.192307692307692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17079463364293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.167103634112591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.173886883273164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.175525686360859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.189330592670987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.201010226688055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.202684974400393</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.200720471670816</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.194586526802705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.198364259461384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.204229175366656</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21710533296529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.217552570326988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.205376852770923</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.209686236295839</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.201416046123216</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.200146580705758</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.197892598305471</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.206148775420134</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.206645953611219</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.197123405191633</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.194220757069458</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.198165940798615</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.201652482345516</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.199406610180541</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.200592502117952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.199540293084443</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.201745586459747</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.204751820788035</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.230255537531159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.265418302241147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.291680649501977</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.313105972616633</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.335343686299417</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.354228988504444</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.372162174860215</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.383149603161649</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.404160287489631</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.415913253928729</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.426457614922135</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.43693072652813</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.438261917405542</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.439457248869074</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.441537588633359</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.455476895903641</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.459960772176445</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.462985857527592</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.468715954415584</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.474869953632569</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.474386714282015</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.475956564678385</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.48037344092324</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.48734960654117</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.496626791674792</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.492962101513979</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.492667163401448</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.50040356613326</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.509363059290435</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.516423419374624</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.549764913442564</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.575764230426511</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.593160600755464</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.607813840128619</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.631988139495748</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.649744335098988</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.663723982295467</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.678300936364684</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.694414149182779</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.706916662808285</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.718167442086617</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.729290451073818</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73031396732236</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.738223932413648</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.742347170070828</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.753046140418292</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.756684728000751</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.752971345666032</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.766599661113709</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.770878749687215</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.777724350805497</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.781888777319093</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.783640297133081</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.789209198037135</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.792224793371558</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.789948158601017</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.788897345174601</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.784957341476912</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.786401848839766</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.786703802629365</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.78597748455662</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.783327677079542</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.789925413942251</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.796861361458219</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.796117307752896</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.792453533071629</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.797140485544354</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.802356747040571</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.802061183410879</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.805787299352143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVBFading-0.99</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$2:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.192307692307692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.171494728544684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.167697333490159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.173317992581636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.174683794442809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.185782286184392</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.195190626884614</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.197105877506337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.196294836002363</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.192520475817633</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.195142365820172</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.199082795009425</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.207301944231719</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.208271071731777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.201984325630461</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.204541185025313</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.200445187956716</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.199819021255972</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19868473995405</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.202596621442194</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.202988093696242</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.198815189481743</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.197424354998262</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.198944574471265</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20034280522504</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.199462137394746</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.199907409129003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.19950651090519</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.200318331791142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.201459391130658</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.210733979927637</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.223782929708474</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.234266197622969</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.243437896325904</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.25309161161965</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.261875212810742</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.270501165475991</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.277095116061667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.286735974688981</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.293776785083251</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30046997502549</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.30713048437499</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.311199291095229</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.31508051553081</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.319061271825266</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.326105060651307</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.330721022840873</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.3348802514816</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.339637440952619</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.344453703291507</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.347582461594082</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.351079377078687</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.35516739649801</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.359816355302025</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.364998276254339</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.367204583760232</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.37001896319262</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.374543531728828</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.379357383293287</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.383785608400741</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.393951610904249</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.402917853006736</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.410312405593954</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.417257819525495</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.42627429140558</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.434183743053054</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.441440868874652</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.448880490573068</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.456695833425549</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.463883580970162</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.470860806201476</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.47783034659189</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.482870648315498</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.489102271272491</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.494593969983757</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.501244386116459</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.506600920843715</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.510525964601555</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.517447506630919</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.522739951742203</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.528433272989156</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.533624229695213</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.538329927696467</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.543618559402309</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.548427585163728</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.552254554443849</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.556159720641807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.559459872325754</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.563526542149426</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.567329091589101</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.570875768660293</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.574008792617087</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.578551103372147</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.583153485393197</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.586514487050232</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.589315841134498</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.593339121689771</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.597433532001019</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.600645784315428</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.604419331884232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVB-HPP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$2:$I$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.192307692307692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.169799313828064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.167275638151139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17848146381638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.180651987689524</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.204393495937995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.222373287000103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.219336266157979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.210583008470948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.194711729464254</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.204592062613383</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.217836346865684</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.248379750352284</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.239745661770925</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.194598380102562</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.213251359482863</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.187680492320544</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.189945745554811</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.187923953012586</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2191561761888</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21726376922375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.18323736826625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.180040116608539</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.199059504580202</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.211086876312709</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.201871540255175</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.205885720787362</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.201915031717272</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.209152307539504</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.217264419087184</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.43062847369133</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.520172144897568</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.519945156350502</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.51124359171657</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.518607315822385</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.519033142820488</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.522912179470703</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.507459513539847</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.537482499087466</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.531078114075047</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.527051549909366</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.527943021515066</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.500132930054484</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.482403657639295</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.474666310763306</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.513799165603006</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.508772034192763</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.502108245935662</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.50832938170809</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.515778280068246</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.499831998621686</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.496451830542876</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.504540431779237</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.520185241138193</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.540935297979236</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.511744950814389</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.504033894948619</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.527445931902507</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.549597598973304</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.560042298119633</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.823790437231037</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.813135328516614</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.780345139654569</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.761500456000568</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.796093553368801</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.79986897814355</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.794894859384397</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.798792248715192</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.811499854850111</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.812989306908276</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.813962544769254</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.817869635076621</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.789332087870285</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.795030504957151</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.788709033637814</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.808053231435987</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.800672093641683</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.770709114140619</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.816326483683605</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.812426592220711</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.820752833624723</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.819064164628961</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.811224847578699</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.819435053902132</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.81826412922944</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.80072760832734</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.792550541013356</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.777008428854326</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.783410238179073</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.784354539390113</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.781707821626637</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.773364615177884</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.798017329872663</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.817770832442109</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.80696163466707</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.789580619337412</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.805311500632428</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.818960121096827</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.811264769398424</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.819386026543584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,355 +2623,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2100706808"/>
-        <c:axId val="-2100930840"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SVB-HPP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$D$2:$D$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>166.616107878329</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>211.699873342668</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>240.893453185815</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>262.470655810126</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>267.577389688206</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>274.662498077538</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>284.494128250553</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>290.449433568366</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>291.749208803844</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>295.150362163601</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>295.632577324909</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>281.38394586088</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>287.537635011519</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>252.313519267306</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>264.402257511151</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>267.981836927544</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>280.917431459188</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>290.023383991022</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>276.540632992605</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>285.94226910715</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>270.312768760147</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>282.866267392782</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>284.294917031808</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>289.027066255124</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>293.680519370662</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>297.972158735784</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>301.115622855624</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>302.308405739996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>302.607434143689</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>112.199774507906</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>155.247951960399</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>200.600022094451</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>230.451895823209</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>250.578234715512</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>264.59484214138</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>273.94594070516</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>277.797735204024</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>272.545032669815</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>279.06585868238</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>283.746987136526</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>287.105630605782</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>279.781781670808</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>280.779935573745</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>284.407475656891</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>268.234681989697</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>276.285880819406</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>281.521345436722</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>285.128808851268</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>287.379578760088</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>286.477475251955</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>288.804809843188</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>289.733941096169</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>288.163055199741</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>284.858417161341</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>277.398400056209</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>282.105192092914</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>279.509055518899</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>278.587543282991</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>282.479607406579</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>107.043117479969</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>170.134855758971</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>205.2781793975</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>233.194351635926</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>241.888402459061</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>262.423118113344</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>276.224085800368</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>286.085275212611</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>290.695940477941</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>296.900708005105</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>301.291554120166</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>304.231463087531</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>288.001741828815</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>293.802872111322</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>297.426888787098</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>293.92964303811</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>297.646060092033</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>282.827817395408</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>248.116548306821</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>267.066871305385</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>279.681016387416</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>289.454550568257</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>294.796716913387</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>298.73200063554</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>302.744256665706</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>298.406127430901</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>300.216576666131</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>297.667032101743</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>299.923288479738</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>302.245934420973</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>303.649141949186</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>303.172703320913</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>292.57125987395</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>290.603502175751</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>294.198977248751</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>292.722523840173</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>293.340929136737</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>295.315445394415</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>298.888469522619</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>301.577447456628</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="-2120317368"/>
-        <c:axId val="-2120279880"/>
+        <c:axId val="-2128172664"/>
+        <c:axId val="-2128169752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2100706808"/>
+        <c:axId val="-2128172664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,7 +2636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100930840"/>
+        <c:crossAx val="-2128169752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1675,7 +2644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2100930840"/>
+        <c:axId val="-2128169752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1686,43 +2655,10 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2100706808"/>
+        <c:crossAx val="-2128172664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:valAx>
-        <c:axId val="-2120279880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1000.0"/>
-          <c:min val="100.0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120317368"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="-2120317368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120279880"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1761,11 +2697,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$A$1</c:f>
+              <c:f>Sheet2!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Real</c:v>
+                  <c:v>SVB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1775,309 +2711,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$A$2:$A$101</c:f>
+              <c:f>Sheet2!$A$2:$A$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.2</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>300.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2</c:v>
+                  <c:v>400.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2</c:v>
+                  <c:v>500.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2</c:v>
+                  <c:v>600.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2</c:v>
+                  <c:v>700.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.2</c:v>
+                  <c:v>800.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.2</c:v>
+                  <c:v>900.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2</c:v>
+                  <c:v>1100.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.2</c:v>
+                  <c:v>1200.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.2</c:v>
+                  <c:v>1300.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2</c:v>
+                  <c:v>1400.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.2</c:v>
+                  <c:v>1500.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.2</c:v>
+                  <c:v>1600.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2</c:v>
+                  <c:v>1700.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.2</c:v>
+                  <c:v>1800.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.2</c:v>
+                  <c:v>1900.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.2</c:v>
+                  <c:v>2000.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.2</c:v>
+                  <c:v>2100.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.2</c:v>
+                  <c:v>2200.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.2</c:v>
+                  <c:v>2300.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.2</c:v>
+                  <c:v>2400.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.2</c:v>
+                  <c:v>2500.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.2</c:v>
+                  <c:v>2600.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.2</c:v>
+                  <c:v>2700.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.2</c:v>
+                  <c:v>2800.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.2</c:v>
+                  <c:v>2900.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.2</c:v>
+                  <c:v>3000.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.5</c:v>
+                  <c:v>3100.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.5</c:v>
+                  <c:v>3200.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.5</c:v>
+                  <c:v>3300.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.5</c:v>
+                  <c:v>3400.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.5</c:v>
+                  <c:v>3500.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.5</c:v>
+                  <c:v>3600.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.5</c:v>
+                  <c:v>3700.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.5</c:v>
+                  <c:v>3800.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.5</c:v>
+                  <c:v>3900.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.5</c:v>
+                  <c:v>4000.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.5</c:v>
+                  <c:v>4100.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.5</c:v>
+                  <c:v>4200.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.5</c:v>
+                  <c:v>4300.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.5</c:v>
+                  <c:v>4400.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.5</c:v>
+                  <c:v>4500.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.5</c:v>
+                  <c:v>4600.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.5</c:v>
+                  <c:v>4700.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.5</c:v>
+                  <c:v>4800.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.5</c:v>
+                  <c:v>4900.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.5</c:v>
+                  <c:v>5000.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.5</c:v>
+                  <c:v>5100.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.5</c:v>
+                  <c:v>5200.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.5</c:v>
+                  <c:v>5300.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.5</c:v>
+                  <c:v>5400.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.5</c:v>
+                  <c:v>5500.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.5</c:v>
+                  <c:v>5600.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.5</c:v>
+                  <c:v>5700.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.5</c:v>
+                  <c:v>5800.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.5</c:v>
+                  <c:v>5900.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.5</c:v>
+                  <c:v>6000.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.8</c:v>
+                  <c:v>6100.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.8</c:v>
+                  <c:v>6200.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.8</c:v>
+                  <c:v>6300.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.8</c:v>
+                  <c:v>6400.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.8</c:v>
+                  <c:v>6500.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.8</c:v>
+                  <c:v>6600.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.8</c:v>
+                  <c:v>6700.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.8</c:v>
+                  <c:v>6800.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.8</c:v>
+                  <c:v>6900.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.8</c:v>
+                  <c:v>7000.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.8</c:v>
+                  <c:v>7100.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.8</c:v>
+                  <c:v>7200.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.8</c:v>
+                  <c:v>7300.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.8</c:v>
+                  <c:v>7400.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.8</c:v>
+                  <c:v>7500.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.8</c:v>
+                  <c:v>7600.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.8</c:v>
+                  <c:v>7700.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.8</c:v>
+                  <c:v>7800.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.8</c:v>
+                  <c:v>7900.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.8</c:v>
+                  <c:v>8000.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.8</c:v>
+                  <c:v>8100.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.8</c:v>
+                  <c:v>8200.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.8</c:v>
+                  <c:v>8300.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.8</c:v>
+                  <c:v>8400.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.8</c:v>
+                  <c:v>8500.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.8</c:v>
+                  <c:v>8600.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.8</c:v>
+                  <c:v>8700.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.8</c:v>
+                  <c:v>8800.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.8</c:v>
+                  <c:v>8900.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.8</c:v>
+                  <c:v>9000.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.8</c:v>
+                  <c:v>9100.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.8</c:v>
+                  <c:v>9200.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.8</c:v>
+                  <c:v>9300.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.8</c:v>
+                  <c:v>9400.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.8</c:v>
+                  <c:v>9500.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.8</c:v>
+                  <c:v>9600.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.8</c:v>
+                  <c:v>9700.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.8</c:v>
+                  <c:v>9800.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.8</c:v>
+                  <c:v>9900.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.8</c:v>
+                  <c:v>10000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2089,11 +3025,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$B$1</c:f>
+              <c:f>Sheet2!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SVB</c:v>
+                  <c:v>Population-0.1-1000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2103,309 +3039,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$2:$B$101</c:f>
+              <c:f>Sheet2!$B$2:$B$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.192307692307692</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17156862745098</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.167763157894736</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.173267326732673</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.174603174603174</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.185430463576158</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.194602272727272</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.196517412935323</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.195796460176991</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.192231075697211</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.194746376811594</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.198504983388704</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.206288343558282</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.207264957264957</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.201462765957446</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.203865336658354</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.200117370892018</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.199556541019955</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.198529411764705</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.202095808383233</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.202471482889733</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.198729582577132</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.197482638888888</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.198835274542429</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.200079872204472</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.199308755760368</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.199704142011834</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.199358059914408</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.200068870523416</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.201065246338215</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.209085051546391</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.220349563046192</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.229418886198547</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.237367802585193</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.245719178082191</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.253329633740288</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.260799136069114</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.266561514195583</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.274846311475409</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.280969030969031</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.286793372319688</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.292578496669838</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.296236059479553</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.299727520435967</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.303285968028419</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.309296264118158</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.313350340136054</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.317027477102414</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.321166394779771</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.325339728217426</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.328173981191222</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.331283627978478</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.334841628959276</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.338823094004441</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.343204941860465</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.345289079229122</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.347826086956521</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.351654031702274</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.355691056910569</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.359427048634243</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.367463958060288</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.374597034171502</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.380552030456852</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.386164896939412</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.393296432964329</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.399606299212598</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.405429594272076</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.411375661375661</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.417584009269988</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.423329525985151</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.428913288288288</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.434480843975569</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.438663745892661</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.443679092382495</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.448160980810234</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.453445554971067</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.457814122533748</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.461173757047667</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.4665991902834</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.470889555222388</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.475444225074037</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.479644076060458</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.483501926782273</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.487743931461208</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.49165098777046</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.494886099488609</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.498161764705882</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.501022262607905</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.504380053908355</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.507552199022656</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.510544815465729</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.513255106475445</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.516874462596732</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.52052318162484</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.523358585858585</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.52582257392753</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.529060181368507</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.532333741330069</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.535036348949919</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.538084766093562</c:v>
+                  <c:v>1000.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2417,11 +3353,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet3!$C$1</c:f>
+              <c:f>Sheet2!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Population-0.1-1000</c:v>
+                  <c:v>SVBFading-0.9</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2431,2277 +3367,309 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$C$2:$C$101</c:f>
+              <c:f>Sheet2!$C$2:$C$101</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>0.192307692307692</c:v>
+                  <c:v>102.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.171134020618556</c:v>
+                  <c:v>191.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.167563636363636</c:v>
+                  <c:v>272.62</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.174394941075021</c:v>
+                  <c:v>345.358</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.176065391405286</c:v>
+                  <c:v>410.8222</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.189869032226663</c:v>
+                  <c:v>469.73998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.201543205661142</c:v>
+                  <c:v>522.765982</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.203225868219321</c:v>
+                  <c:v>570.4893838</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.201273359016952</c:v>
+                  <c:v>613.4404454200001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.195157513773109</c:v>
+                  <c:v>652.096400878</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.198933557859581</c:v>
+                  <c:v>686.8867607902</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.204791711712336</c:v>
+                  <c:v>718.19808471118</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.217646792620995</c:v>
+                  <c:v>746.378276240062</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.218096028445828</c:v>
+                  <c:v>771.740448616056</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.205946255844741</c:v>
+                  <c:v>794.5664037544503</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.210249425016345</c:v>
+                  <c:v>815.1097633790053</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.201997143963339</c:v>
+                  <c:v>833.5987870411048</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.20073176573926</c:v>
+                  <c:v>850.2389083369944</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.198483594552914</c:v>
+                  <c:v>865.215017503295</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.20672481702818</c:v>
+                  <c:v>878.6935157529656</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.207222064750819</c:v>
+                  <c:v>890.8241641776691</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.197719162937924</c:v>
+                  <c:v>901.7417477599021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.19482306391037</c:v>
+                  <c:v>911.567572983912</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.198761207419805</c:v>
+                  <c:v>920.4108156855208</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.202241511294155</c:v>
+                  <c:v>928.3697341169687</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.20000064267839</c:v>
+                  <c:v>935.5327607052719</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.201184694233803</c:v>
+                  <c:v>941.9794846347447</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.20013501493214</c:v>
+                  <c:v>947.7815361712703</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.202336339348335</c:v>
+                  <c:v>953.0033825541432</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.205336968506706</c:v>
+                  <c:v>957.703044298729</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.230790424373848</c:v>
+                  <c:v>961.932739868856</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.265883684315579</c:v>
+                  <c:v>965.7394658819704</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.292094105415582</c:v>
+                  <c:v>969.1655192937734</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.313477045746105</c:v>
+                  <c:v>972.248967364396</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.335670717788516</c:v>
+                  <c:v>975.0240706279564</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.354518598792364</c:v>
+                  <c:v>977.5216635651608</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.372416225361362</c:v>
+                  <c:v>979.7694972086446</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.383381874950244</c:v>
+                  <c:v>981.7925474877802</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.404350836375348</c:v>
+                  <c:v>983.6132927390021</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.416080468190812</c:v>
+                  <c:v>985.251963465102</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.426603886382882</c:v>
+                  <c:v>986.7267671185918</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.437056187317938</c:v>
+                  <c:v>988.0540904067327</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.43838474745645</c:v>
+                  <c:v>989.2486813660594</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.439577716033378</c:v>
+                  <c:v>990.3238132294535</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.441653929605757</c:v>
+                  <c:v>991.2914319065082</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.455565506528549</c:v>
+                  <c:v>992.1622887158575</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.46004046623534</c:v>
+                  <c:v>992.9460598442718</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.463059536538763</c:v>
+                  <c:v>993.6514538598447</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.468778231922611</c:v>
+                  <c:v>994.2863084738602</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.47491998363844</c:v>
+                  <c:v>994.8576776264742</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.474437709398381</c:v>
+                  <c:v>995.3719098638269</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.476004436859467</c:v>
+                  <c:v>995.8347188774442</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.480412520684588</c:v>
+                  <c:v>996.2512469896998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.487374796687619</c:v>
+                  <c:v>996.6261222907298</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.496633508852522</c:v>
+                  <c:v>996.9635100616568</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.492976116800451</c:v>
+                  <c:v>997.2671590554912</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.492681766491195</c:v>
+                  <c:v>997.5404431499421</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.500402762422389</c:v>
+                  <c:v>997.786398834948</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.509344412072713</c:v>
+                  <c:v>998.0077589514532</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.516390710178461</c:v>
+                  <c:v>998.2069830563078</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.549665798631744</c:v>
+                  <c:v>998.386284750677</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.575613330985847</c:v>
+                  <c:v>998.5476562756094</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.592975049887089</c:v>
+                  <c:v>998.6928906480484</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.607599100701007</c:v>
+                  <c:v>998.8236015832437</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.631725247059875</c:v>
+                  <c:v>998.9412414249193</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.649446072429545</c:v>
+                  <c:v>999.0471172824274</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.663397871195759</c:v>
+                  <c:v>999.1424055541846</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.677945786863537</c:v>
+                  <c:v>999.2281649987661</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.694026901055006</c:v>
+                  <c:v>999.3053484988895</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.706504507964762</c:v>
+                  <c:v>999.3748136490006</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.717732873811588</c:v>
+                  <c:v>999.4373322841006</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.728833723881585</c:v>
+                  <c:v>999.4935990556906</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.729855198689723</c:v>
+                  <c:v>999.5442391501216</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.737749405210205</c:v>
+                  <c:v>999.5898152351094</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.741864427349351</c:v>
+                  <c:v>999.6308337115984</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.752542083766736</c:v>
+                  <c:v>999.6677503404386</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.756173421483732</c:v>
+                  <c:v>999.7009753063947</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.752467434330573</c:v>
+                  <c:v>999.7308777757552</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.766068600933018</c:v>
+                  <c:v>999.7577899981797</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.770339164155619</c:v>
+                  <c:v>999.7820109983617</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.777171127569554</c:v>
+                  <c:v>999.8038098985256</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.781327257329315</c:v>
+                  <c:v>999.8234289086731</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.78307528697988</c:v>
+                  <c:v>999.8410860178059</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.788633093602833</c:v>
+                  <c:v>999.8569774160253</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.791642680913719</c:v>
+                  <c:v>999.8712796744228</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.789370580347042</c:v>
+                  <c:v>999.8841517069806</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.788321859377271</c:v>
+                  <c:v>999.8957365362824</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.784389703515283</c:v>
+                  <c:v>999.9061628826543</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.785831332786923</c:v>
+                  <c:v>999.9155465943888</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.786132684524342</c:v>
+                  <c:v>999.92399193495</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.785407812788117</c:v>
+                  <c:v>999.931592741455</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.782763283324918</c:v>
+                  <c:v>999.9384334673095</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.789347876968648</c:v>
+                  <c:v>999.9445901205786</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.796270007566401</c:v>
+                  <c:v>999.9501311085207</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.795527435691893</c:v>
+                  <c:v>999.9551179976687</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.79187095902714</c:v>
+                  <c:v>999.9596061979018</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.796548574708837</c:v>
+                  <c:v>999.9636455781117</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.801754445036879</c:v>
+                  <c:v>999.9672810203006</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.801459469950023</c:v>
+                  <c:v>999.9705529182705</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.805178163167863</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Population-1000-0.01</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$D$2:$D$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.271428571428571</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.221004184100418</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.203233731936737</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.200458257409053</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.196824960187993</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.20392474362413</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.210494533847104</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.210576188578797</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.208430089704362</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.203685581116439</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.205296053729382</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.208346916537532</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.215685661520863</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.216088724519847</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.209492087446449</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.211568230192695</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.207196201180514</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.20625069751471</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.204840614499799</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.208405498767146</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.208547612780746</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.204229677425159</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.20265891507935</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.203965721890442</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.205169125321893</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.204143731049699</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.204435040041567</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.203903399223749</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.204576261743668</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.205582900820326</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.214622202016811</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.227399771311041</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.237659008255495</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.246634753780422</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.256096624558756</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.264708145094957</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.273172053809393</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.279634590051966</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.289115991641014</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.296032648678735</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.302610682252791</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.309161131941579</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.313151080440765</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.316958516319482</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.320867379188341</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.327811942580479</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.332355657386353</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.336449551459027</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.341138091371445</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.345887470764349</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.348966864147384</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.352412745077445</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.35644613691291</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.361037259402259</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.36615847774186</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.36833106405852</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.371107638765476</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.375581338161565</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.380343325051265</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.384724154898412</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.394798174236118</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.40368409252232</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.411012463547278</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.417896683207269</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.426837513487893</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.434681331256128</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.441879098136726</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.449259241819211</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.45701355430145</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.464146035946584</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.471070576783224</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.47798847988436</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.482991730656614</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.489178624471339</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.494631518675102</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.501235816363265</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.506555840812259</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.510454666831628</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.517330274199571</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.522588362442257</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.528245197139597</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.533403507186431</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.538080192503026</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.543336449460922</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.548116627253892</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.551921396894851</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.555804154173584</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.559085983482127</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.563129764239488</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.566911339534209</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.570438864835012</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.573555486979027</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.578072995127933</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.582650487836024</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.585994335341345</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.588782053198736</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.592784565747644</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.596857995499957</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.600054653968544</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.603809470127935</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Population-100-0.1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$E$2:$E$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.271428571428571</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.222608695652173</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.20604501607717</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.204928366762177</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.202008409156637</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.211822659711065</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.220671539822372</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.220753832127718</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.217752820744014</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.211031934796165</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.213858578603065</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.218820107604369</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.230582071204413</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.23060606507168</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.218637566532006</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.222453760266799</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.214282710354958</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.212838284994802</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.210478746204141</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.21822050323842</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.218548328177508</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.209277150556896</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.206371002728414</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.210054914512938</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.21331276997309</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.211073122333447</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.212140897448281</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.211064972838263</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.213128872003337</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.215970263531857</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.240464092568191</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.274264410273143</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.299511245046476</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.320111022753023</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.341499326735964</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.359665995968985</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.37692039894491</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.387490751190968</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.407714892596124</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.419027255950484</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.429177439789321</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.43926038641769</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.440539912420192</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.441688943293128</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.443690694358401</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.457115329493462</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.46143314795508</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.464346116140596</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.469864969193241</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.475792461662116</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.475326522021529</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.476838400033149</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.481093007138875</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.487813248511367</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.49675038323675</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.493219893224608</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.49293569181914</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.50038879084201</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.509020329454166</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.515822357387843</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.547943920208014</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.572992278040276</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.589752623694459</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.603870289198292</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.627160869915099</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.644268184433262</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.657737112724435</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.671781540031861</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.687306086189677</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.699351965736217</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.710191877674718</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.720908689032495</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.721895176478955</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.729516363693786</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.733489217622683</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.743797442525861</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.747303323927078</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.743725909894124</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.756856383727053</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.760979303770595</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.767574928084069</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.771587348790474</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.773275026212251</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.778640570805612</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.781546104911841</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.779352788018806</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.778340484427167</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.77454455426093</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.775936365955055</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.77622736605918</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.775527660249839</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.772974742759151</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.779331454068882</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.786014014425538</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.78529719736391</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.781767340221835</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.786283072096238</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.791308769503843</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.791024038319635</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.794614033867771</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Population-100-0.01</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$F$2:$F$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.435999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.388681135225375</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.356511097401758</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.336263809916856</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.319443851907069</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.312113186508751</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.307054781917605</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.299435768623627</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.2914178217217</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.282342728248728</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.278635014291328</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.276696376137933</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.278680372431579</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.275770803437413</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.267612512160135</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.266641004994186</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.260688069533169</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.257713875604379</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.254532750745684</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.255671279745687</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.254112335957821</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.248898712735117</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.246104124547832</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.245870236295024</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.245652634825517</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.243597538266327</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.242756881780686</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.241268272311239</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.240895391073067</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.240877701849741</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.248010935315111</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.258552138458158</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.266964532539089</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.27432101334941</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.282186243870303</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.289361325081967</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.296466262250145</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.301828622056265</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.3099571382692</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.315823122361436</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.321423702045155</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.327036412468319</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.330359078223037</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.333540513798692</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.336837023979859</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.34292439307412</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.346846808251397</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.350378292464973</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.354472804812477</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.358641789005008</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.361294869902839</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.364298074790265</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.367855317316653</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.371940250847193</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.376528313226144</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.378407794098765</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.380853859290022</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.384879152130219</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.389182837147164</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.393144539102814</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.402398319334818</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.410567463480252</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.417305109770326</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.423642599269001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.43190592776539</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.439161495795936</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.445826826810573</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.452672845116587</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.45987845273175</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.466513670278425</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.472963761332953</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.479416231961935</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.484085395661013</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.489868543268513</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.494970929974189</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.501158324812463</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.506148067441545</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.509809527485397</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.516269158231579</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.521215851203315</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.526541832269845</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.531403904167836</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.53581713897989</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.540779353760017</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.545297338946397</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.548900104372861</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.552578890257154</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.555693759114423</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.559529092258976</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.563119541238634</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.566472435520015</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.569439357366713</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.573730842012803</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.578081470508783</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.581268678888153</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.583931700460372</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.587744690879171</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.591626636195801</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.594680751517841</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.598264484584169</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SVBFading-0.9</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$G$2:$G$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.192307692307692</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17079463364293</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.167103634112591</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.173886883273164</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.175525686360859</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.189330592670987</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.201010226688055</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.202684974400393</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.200720471670816</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.194586526802705</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.198364259461384</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.204229175366656</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.21710533296529</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.217552570326988</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.205376852770923</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.209686236295839</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.201416046123216</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.200146580705758</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.197892598305471</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.206148775420134</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.206645953611219</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.197123405191633</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.194220757069458</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.198165940798615</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.201652482345516</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.199406610180541</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.200592502117952</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.199540293084443</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.201745586459747</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.204751820788035</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.230255537531159</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.265418302241147</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.291680649501977</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.313105972616633</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.335343686299417</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.354228988504444</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.372162174860215</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.383149603161649</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.404160287489631</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.415913253928729</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.426457614922135</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.43693072652813</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.438261917405542</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.439457248869074</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.441537588633359</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.455476895903641</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.459960772176445</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.462985857527592</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.468715954415584</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.474869953632569</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.474386714282015</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.475956564678385</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.48037344092324</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.48734960654117</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.496626791674792</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.492962101513979</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.492667163401448</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.50040356613326</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.509363059290435</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.516423419374624</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.549764913442564</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.575764230426511</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.593160600755464</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.607813840128619</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.631988139495748</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.649744335098988</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.663723982295467</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.678300936364684</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.694414149182779</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.706916662808285</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.718167442086617</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.729290451073818</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.73031396732236</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.738223932413648</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.742347170070828</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.753046140418292</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.756684728000751</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.752971345666032</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.766599661113709</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.770878749687215</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.777724350805497</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.781888777319093</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.783640297133081</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.789209198037135</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.792224793371558</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.789948158601017</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.788897345174601</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.784957341476912</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.786401848839766</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.786703802629365</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.78597748455662</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.783327677079542</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.789925413942251</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.796861361458219</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.796117307752896</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.792453533071629</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.797140485544354</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.802356747040571</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.802061183410879</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.805787299352143</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SVBFading-0.99</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$H$2:$H$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.192307692307692</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.171494728544684</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.167697333490159</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.173317992581636</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.174683794442809</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.185782286184392</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.195190626884614</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.197105877506337</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.196294836002363</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.192520475817633</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.195142365820172</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.199082795009425</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.207301944231719</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.208271071731777</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.201984325630461</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.204541185025313</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.200445187956716</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.199819021255972</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.19868473995405</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.202596621442194</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.202988093696242</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.198815189481743</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.197424354998262</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.198944574471265</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.20034280522504</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.199462137394746</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.199907409129003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.19950651090519</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.200318331791142</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.201459391130658</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.210733979927637</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.223782929708474</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.234266197622969</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.243437896325904</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.25309161161965</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.261875212810742</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.270501165475991</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.277095116061667</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.286735974688981</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.293776785083251</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.30046997502549</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.30713048437499</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.311199291095229</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.31508051553081</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.319061271825266</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.326105060651307</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.330721022840873</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.3348802514816</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.339637440952619</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.344453703291507</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.347582461594082</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.351079377078687</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.35516739649801</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.359816355302025</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.364998276254339</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.367204583760232</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.37001896319262</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.374543531728828</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.379357383293287</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.383785608400741</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.393951610904249</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.402917853006736</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.410312405593954</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.417257819525495</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.42627429140558</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.434183743053054</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.441440868874652</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.448880490573068</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.456695833425549</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.463883580970162</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.470860806201476</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.47783034659189</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.482870648315498</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.489102271272491</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.494593969983757</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.501244386116459</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.506600920843715</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.510525964601555</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.517447506630919</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.522739951742203</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.528433272989156</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.533624229695213</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.538329927696467</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.543618559402309</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.548427585163728</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.552254554443849</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.556159720641807</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.559459872325754</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.563526542149426</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.567329091589101</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.570875768660293</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.574008792617087</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.578551103372147</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.583153485393197</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.586514487050232</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.589315841134498</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.593339121689771</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.597433532001019</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.600645784315428</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.604419331884232</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet3!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SVB-HPP</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet3!$I$2:$I$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0.192307692307692</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.169799313828064</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.167275638151139</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.17848146381638</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.180651987689524</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.204393495937995</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.222373287000103</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.219336266157979</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.210583008470948</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.194711729464254</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.204592062613383</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.217836346865684</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.248379750352284</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.239745661770925</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.194598380102562</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.213251359482863</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.187680492320544</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.189945745554811</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.187923953012586</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.2191561761888</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.21726376922375</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.18323736826625</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.180040116608539</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.199059504580202</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.211086876312709</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.201871540255175</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.205885720787362</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.201915031717272</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.209152307539504</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.217264419087184</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.43062847369133</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.520172144897568</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.519945156350502</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.51124359171657</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.518607315822385</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.519033142820488</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.522912179470703</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.507459513539847</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.537482499087466</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.531078114075047</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.527051549909366</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.527943021515066</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.500132930054484</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.482403657639295</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.474666310763306</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.513799165603006</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.508772034192763</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.502108245935662</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.50832938170809</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.515778280068246</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.499831998621686</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.496451830542876</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.504540431779237</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.520185241138193</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.540935297979236</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.511744950814389</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.504033894948619</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.527445931902507</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.549597598973304</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.560042298119633</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.823790437231037</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.813135328516614</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.780345139654569</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.761500456000568</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.796093553368801</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.79986897814355</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.794894859384397</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.798792248715192</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.811499854850111</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.812989306908276</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.813962544769254</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.817869635076621</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.789332087870285</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.795030504957151</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.788709033637814</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.808053231435987</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.800672093641683</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.770709114140619</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.816326483683605</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.812426592220711</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.820752833624723</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.819064164628961</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.811224847578699</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.819435053902132</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.81826412922944</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.80072760832734</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.792550541013356</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.777008428854326</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.783410238179073</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.784354539390113</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.781707821626637</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.773364615177884</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.798017329872663</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.817770832442109</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.80696163466707</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.789580619337412</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.805311500632428</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.818960121096827</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.811264769398424</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.819386026543584</c:v>
+                  <c:v>999.9734976264435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4718,11 +3686,355 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2129182216"/>
-        <c:axId val="-2129591928"/>
+        <c:axId val="-2125851192"/>
+        <c:axId val="-2125847800"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVB-HPP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>166.616107878329</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>211.699873342668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>240.893453185815</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262.470655810126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>267.577389688206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>274.662498077538</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>284.494128250553</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>290.449433568366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>291.749208803844</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>295.150362163601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>295.632577324909</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>281.38394586088</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>287.537635011519</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>252.313519267306</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>264.402257511151</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>267.981836927544</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>280.917431459188</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>290.023383991022</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>276.540632992605</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>285.94226910715</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>270.312768760147</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>282.866267392782</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>284.294917031808</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>289.027066255124</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>293.680519370662</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>297.972158735784</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>301.115622855624</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>302.308405739996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>302.607434143689</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>112.199774507906</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>155.247951960399</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>200.600022094451</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>230.451895823209</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>250.578234715512</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>264.59484214138</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>273.94594070516</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>277.797735204024</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>272.545032669815</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>279.06585868238</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>283.746987136526</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>287.105630605782</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>279.781781670808</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>280.779935573745</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>284.407475656891</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>268.234681989697</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>276.285880819406</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>281.521345436722</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>285.128808851268</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>287.379578760088</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>286.477475251955</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>288.804809843188</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>289.733941096169</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>288.163055199741</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>284.858417161341</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>277.398400056209</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>282.105192092914</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>279.509055518899</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>278.587543282991</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>282.479607406579</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>107.043117479969</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>170.134855758971</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>205.2781793975</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>233.194351635926</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>241.888402459061</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>262.423118113344</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>276.224085800368</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>286.085275212611</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>290.695940477941</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>296.900708005105</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>301.291554120166</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>304.231463087531</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>288.001741828815</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>293.802872111322</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>297.426888787098</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>293.92964303811</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>297.646060092033</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>282.827817395408</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>248.116548306821</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>267.066871305385</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>279.681016387416</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>289.454550568257</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>294.796716913387</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>298.73200063554</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>302.744256665706</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>298.406127430901</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>300.216576666131</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>297.667032101743</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>299.923288479738</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>302.245934420973</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>303.649141949186</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>303.172703320913</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>292.57125987395</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>290.603502175751</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>294.198977248751</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>292.722523840173</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>293.340929136737</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>295.315445394415</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>298.888469522619</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>301.577447456628</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2125581640"/>
+        <c:axId val="2142458392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2129182216"/>
+        <c:axId val="-2125851192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4731,7 +4043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129591928"/>
+        <c:crossAx val="-2125847800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4739,7 +4051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2129591928"/>
+        <c:axId val="-2125847800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4750,10 +4062,44 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129182216"/>
+        <c:crossAx val="-2125851192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="2142458392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1000.0"/>
+          <c:min val="100.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2125581640"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="-2125581640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2142458392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -4792,6 +4138,3037 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>Sheet3!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Real</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVB</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.192307692307692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17156862745098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.167763157894736</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.173267326732673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.174603174603174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.185430463576158</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.194602272727272</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.196517412935323</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.195796460176991</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.192231075697211</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.194746376811594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.198504983388704</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.206288343558282</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.207264957264957</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.201462765957446</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.203865336658354</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.200117370892018</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.199556541019955</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.198529411764705</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.202095808383233</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.202471482889733</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.198729582577132</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.197482638888888</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.198835274542429</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.200079872204472</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.199308755760368</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.199704142011834</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.199358059914408</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.200068870523416</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.201065246338215</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.209085051546391</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.220349563046192</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.229418886198547</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.237367802585193</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.245719178082191</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.253329633740288</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.260799136069114</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.266561514195583</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.274846311475409</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.280969030969031</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.286793372319688</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.292578496669838</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.296236059479553</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.299727520435967</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.303285968028419</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.309296264118158</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.313350340136054</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.317027477102414</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.321166394779771</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.325339728217426</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.328173981191222</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.331283627978478</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.334841628959276</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.338823094004441</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.343204941860465</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.345289079229122</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.347826086956521</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.351654031702274</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.355691056910569</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.359427048634243</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.367463958060288</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.374597034171502</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.380552030456852</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.386164896939412</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.393296432964329</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.399606299212598</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.405429594272076</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.411375661375661</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.417584009269988</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.423329525985151</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.428913288288288</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.434480843975569</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.438663745892661</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.443679092382495</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.448160980810234</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.453445554971067</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.457814122533748</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.461173757047667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.4665991902834</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.470889555222388</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.475444225074037</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.479644076060458</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.483501926782273</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.487743931461208</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.49165098777046</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.494886099488609</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.498161764705882</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.501022262607905</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.504380053908355</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.507552199022656</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.510544815465729</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.513255106475445</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.516874462596732</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.52052318162484</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.523358585858585</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.52582257392753</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.529060181368507</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.532333741330069</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.535036348949919</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.538084766093562</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Population-0.1-1000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.192307692307692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.171134020618556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.167563636363636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.174394941075021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.176065391405286</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.189869032226663</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.201543205661142</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.203225868219321</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.201273359016952</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.195157513773109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.198933557859581</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.204791711712336</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.217646792620995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.218096028445828</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.205946255844741</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.210249425016345</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.201997143963339</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20073176573926</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.198483594552914</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.20672481702818</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.207222064750819</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.197719162937924</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19482306391037</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.198761207419805</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.202241511294155</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.20000064267839</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.201184694233803</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.20013501493214</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.202336339348335</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.205336968506706</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.230790424373848</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.265883684315579</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.292094105415582</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.313477045746105</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.335670717788516</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.354518598792364</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.372416225361362</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.383381874950244</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.404350836375348</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.416080468190812</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.426603886382882</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.437056187317938</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.43838474745645</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.439577716033378</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.441653929605757</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.455565506528549</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46004046623534</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.463059536538763</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.468778231922611</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.47491998363844</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.474437709398381</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.476004436859467</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.480412520684588</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.487374796687619</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.496633508852522</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.492976116800451</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.492681766491195</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.500402762422389</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.509344412072713</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.516390710178461</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.549665798631744</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.575613330985847</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.592975049887089</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.607599100701007</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.631725247059875</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.649446072429545</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.663397871195759</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.677945786863537</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.694026901055006</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.706504507964762</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.717732873811588</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.728833723881585</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.729855198689723</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.737749405210205</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.741864427349351</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.752542083766736</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.756173421483732</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.752467434330573</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.766068600933018</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.770339164155619</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.777171127569554</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.781327257329315</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.78307528697988</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.788633093602833</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.791642680913719</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.789370580347042</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.788321859377271</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.784389703515283</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.785831332786923</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.786132684524342</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.785407812788117</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.782763283324918</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.789347876968648</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.796270007566401</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.795527435691893</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.79187095902714</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.796548574708837</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.801754445036879</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.801459469950023</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.805178163167863</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Population-1000-0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.271428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.221004184100418</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.203233731936737</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.200458257409053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.196824960187993</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20392474362413</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.210494533847104</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.210576188578797</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.208430089704362</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.203685581116439</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.205296053729382</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.208346916537532</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.215685661520863</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.216088724519847</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.209492087446449</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.211568230192695</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.207196201180514</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.20625069751471</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.204840614499799</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.208405498767146</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.208547612780746</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.204229677425159</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.20265891507935</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.203965721890442</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.205169125321893</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.204143731049699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.204435040041567</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.203903399223749</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.204576261743668</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.205582900820326</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.214622202016811</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.227399771311041</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.237659008255495</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.246634753780422</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.256096624558756</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.264708145094957</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.273172053809393</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.279634590051966</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.289115991641014</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.296032648678735</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.302610682252791</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.309161131941579</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.313151080440765</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.316958516319482</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.320867379188341</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.327811942580479</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.332355657386353</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.336449551459027</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.341138091371445</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.345887470764349</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.348966864147384</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.352412745077445</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.35644613691291</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.361037259402259</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.36615847774186</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.36833106405852</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.371107638765476</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.375581338161565</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.380343325051265</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.384724154898412</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.394798174236118</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.40368409252232</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.411012463547278</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.417896683207269</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.426837513487893</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.434681331256128</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.441879098136726</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.449259241819211</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.45701355430145</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.464146035946584</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.471070576783224</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.47798847988436</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.482991730656614</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.489178624471339</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.494631518675102</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.501235816363265</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.506555840812259</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.510454666831628</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.517330274199571</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.522588362442257</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.528245197139597</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.533403507186431</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.538080192503026</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.543336449460922</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.548116627253892</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.551921396894851</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.555804154173584</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.559085983482127</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.563129764239488</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.566911339534209</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.570438864835012</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.573555486979027</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.578072995127933</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.582650487836024</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.585994335341345</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.588782053198736</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.592784565747644</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.596857995499957</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.600054653968544</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.603809470127935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Population-100-0.1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.271428571428571</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.222608695652173</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.20604501607717</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.204928366762177</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.202008409156637</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.211822659711065</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.220671539822372</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.220753832127718</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.217752820744014</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.211031934796165</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.213858578603065</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.218820107604369</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.230582071204413</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.23060606507168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.218637566532006</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.222453760266799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.214282710354958</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.212838284994802</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.210478746204141</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21822050323842</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.218548328177508</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.209277150556896</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.206371002728414</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.210054914512938</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.21331276997309</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.211073122333447</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.212140897448281</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.211064972838263</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.213128872003337</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.215970263531857</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.240464092568191</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.274264410273143</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.299511245046476</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.320111022753023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.341499326735964</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.359665995968985</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.37692039894491</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.387490751190968</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.407714892596124</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.419027255950484</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.429177439789321</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.43926038641769</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.440539912420192</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.441688943293128</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.443690694358401</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.457115329493462</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.46143314795508</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.464346116140596</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.469864969193241</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.475792461662116</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.475326522021529</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.476838400033149</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.481093007138875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.487813248511367</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.49675038323675</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.493219893224608</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.49293569181914</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.50038879084201</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.509020329454166</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.515822357387843</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.547943920208014</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.572992278040276</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.589752623694459</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.603870289198292</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.627160869915099</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.644268184433262</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.657737112724435</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.671781540031861</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.687306086189677</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.699351965736217</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.710191877674718</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.720908689032495</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.721895176478955</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.729516363693786</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.733489217622683</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.743797442525861</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.747303323927078</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.743725909894124</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.756856383727053</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.760979303770595</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.767574928084069</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.771587348790474</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.773275026212251</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.778640570805612</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.781546104911841</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.779352788018806</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.778340484427167</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.77454455426093</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.775936365955055</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.77622736605918</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.775527660249839</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.772974742759151</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.779331454068882</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.786014014425538</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.78529719736391</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.781767340221835</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.786283072096238</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.791308769503843</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.791024038319635</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.794614033867771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Population-100-0.01</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$F$2:$F$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.435999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.388681135225375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.356511097401758</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.336263809916856</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.319443851907069</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.312113186508751</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.307054781917605</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.299435768623627</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.2914178217217</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.282342728248728</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.278635014291328</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.276696376137933</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.278680372431579</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.275770803437413</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.267612512160135</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.266641004994186</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.260688069533169</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.257713875604379</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.254532750745684</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.255671279745687</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.254112335957821</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.248898712735117</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.246104124547832</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.245870236295024</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.245652634825517</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.243597538266327</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.242756881780686</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.241268272311239</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.240895391073067</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.240877701849741</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.248010935315111</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.258552138458158</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.266964532539089</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.27432101334941</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.282186243870303</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.289361325081967</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.296466262250145</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.301828622056265</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.3099571382692</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.315823122361436</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.321423702045155</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.327036412468319</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.330359078223037</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.333540513798692</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.336837023979859</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.34292439307412</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.346846808251397</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.350378292464973</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.354472804812477</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.358641789005008</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.361294869902839</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.364298074790265</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.367855317316653</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.371940250847193</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.376528313226144</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.378407794098765</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.380853859290022</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.384879152130219</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.389182837147164</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.393144539102814</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.402398319334818</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.410567463480252</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.417305109770326</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.423642599269001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.43190592776539</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.439161495795936</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.445826826810573</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.452672845116587</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.45987845273175</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.466513670278425</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.472963761332953</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.479416231961935</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.484085395661013</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.489868543268513</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.494970929974189</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.501158324812463</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.506148067441545</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.509809527485397</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.516269158231579</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.521215851203315</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.526541832269845</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.531403904167836</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.53581713897989</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.540779353760017</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.545297338946397</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.548900104372861</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.552578890257154</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.555693759114423</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.559529092258976</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.563119541238634</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.566472435520015</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.569439357366713</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.573730842012803</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.578081470508783</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.581268678888153</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.583931700460372</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.587744690879171</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.591626636195801</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.594680751517841</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.598264484584169</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVBFading-0.9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$G$2:$G$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.192307692307692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17079463364293</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.167103634112591</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.173886883273164</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.175525686360859</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.189330592670987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.201010226688055</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.202684974400393</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.200720471670816</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.194586526802705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.198364259461384</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.204229175366656</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.21710533296529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.217552570326988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.205376852770923</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.209686236295839</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.201416046123216</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.200146580705758</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.197892598305471</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.206148775420134</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.206645953611219</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.197123405191633</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.194220757069458</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.198165940798615</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.201652482345516</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.199406610180541</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.200592502117952</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.199540293084443</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.201745586459747</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.204751820788035</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.230255537531159</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.265418302241147</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.291680649501977</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.313105972616633</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.335343686299417</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.354228988504444</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.372162174860215</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.383149603161649</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.404160287489631</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.415913253928729</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.426457614922135</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.43693072652813</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.438261917405542</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.439457248869074</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.441537588633359</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.455476895903641</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.459960772176445</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.462985857527592</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.468715954415584</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.474869953632569</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.474386714282015</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.475956564678385</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.48037344092324</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.48734960654117</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.496626791674792</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.492962101513979</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.492667163401448</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.50040356613326</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.509363059290435</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.516423419374624</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.549764913442564</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.575764230426511</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.593160600755464</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.607813840128619</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.631988139495748</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.649744335098988</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.663723982295467</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.678300936364684</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.694414149182779</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.706916662808285</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.718167442086617</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.729290451073818</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.73031396732236</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.738223932413648</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.742347170070828</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.753046140418292</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.756684728000751</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.752971345666032</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.766599661113709</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.770878749687215</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.777724350805497</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.781888777319093</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.783640297133081</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.789209198037135</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.792224793371558</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.789948158601017</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.788897345174601</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.784957341476912</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.786401848839766</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.786703802629365</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.78597748455662</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.783327677079542</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.789925413942251</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.796861361458219</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.796117307752896</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.792453533071629</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.797140485544354</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.802356747040571</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.802061183410879</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.805787299352143</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVBFading-0.99</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$H$2:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.192307692307692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.171494728544684</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.167697333490159</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.173317992581636</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.174683794442809</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.185782286184392</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.195190626884614</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.197105877506337</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.196294836002363</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.192520475817633</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.195142365820172</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.199082795009425</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.207301944231719</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.208271071731777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.201984325630461</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.204541185025313</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.200445187956716</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.199819021255972</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.19868473995405</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.202596621442194</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.202988093696242</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.198815189481743</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.197424354998262</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.198944574471265</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20034280522504</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.199462137394746</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.199907409129003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.19950651090519</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.200318331791142</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.201459391130658</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.210733979927637</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.223782929708474</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.234266197622969</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.243437896325904</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.25309161161965</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.261875212810742</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.270501165475991</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.277095116061667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.286735974688981</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.293776785083251</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.30046997502549</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.30713048437499</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.311199291095229</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.31508051553081</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.319061271825266</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.326105060651307</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.330721022840873</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.3348802514816</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.339637440952619</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.344453703291507</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.347582461594082</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.351079377078687</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.35516739649801</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.359816355302025</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.364998276254339</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.367204583760232</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.37001896319262</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.374543531728828</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.379357383293287</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.383785608400741</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.393951610904249</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.402917853006736</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.410312405593954</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.417257819525495</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.42627429140558</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.434183743053054</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.441440868874652</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.448880490573068</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.456695833425549</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.463883580970162</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.470860806201476</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.47783034659189</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.482870648315498</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.489102271272491</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.494593969983757</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.501244386116459</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.506600920843715</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.510525964601555</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.517447506630919</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.522739951742203</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.528433272989156</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.533624229695213</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.538329927696467</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.543618559402309</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.548427585163728</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.552254554443849</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.556159720641807</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.559459872325754</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.563526542149426</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.567329091589101</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.570875768660293</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.574008792617087</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.578551103372147</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.583153485393197</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.586514487050232</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.589315841134498</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.593339121689771</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.597433532001019</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.600645784315428</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.604419331884232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVB-HPP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$I$2:$I$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0.192307692307692</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.169799313828064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.167275638151139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17848146381638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.180651987689524</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.204393495937995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.222373287000103</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.219336266157979</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.210583008470948</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.194711729464254</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.204592062613383</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.217836346865684</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.248379750352284</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.239745661770925</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.194598380102562</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.213251359482863</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.187680492320544</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.189945745554811</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.187923953012586</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.2191561761888</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.21726376922375</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.18323736826625</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.180040116608539</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.199059504580202</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.211086876312709</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.201871540255175</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.205885720787362</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.201915031717272</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.209152307539504</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.217264419087184</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.43062847369133</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.520172144897568</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.519945156350502</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.51124359171657</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.518607315822385</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.519033142820488</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.522912179470703</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.507459513539847</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.537482499087466</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.531078114075047</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.527051549909366</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.527943021515066</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.500132930054484</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.482403657639295</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.474666310763306</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.513799165603006</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.508772034192763</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.502108245935662</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.50832938170809</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.515778280068246</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.499831998621686</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.496451830542876</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.504540431779237</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.520185241138193</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.540935297979236</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.511744950814389</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.504033894948619</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.527445931902507</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.549597598973304</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.560042298119633</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.823790437231037</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.813135328516614</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.780345139654569</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.761500456000568</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.796093553368801</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.79986897814355</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.794894859384397</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.798792248715192</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.811499854850111</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.812989306908276</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.813962544769254</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.817869635076621</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.789332087870285</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.795030504957151</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.788709033637814</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.808053231435987</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.800672093641683</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.770709114140619</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.816326483683605</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.812426592220711</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.820752833624723</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.819064164628961</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.811224847578699</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.819435053902132</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.81826412922944</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.80072760832734</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.792550541013356</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.777008428854326</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.783410238179073</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.784354539390113</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.781707821626637</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.773364615177884</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.798017329872663</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.817770832442109</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.80696163466707</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.789580619337412</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.805311500632428</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.818960121096827</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.811264769398424</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.819386026543584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2125617288"/>
+        <c:axId val="-2124002312"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2125617288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2124002312"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2124002312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2125617288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>Sheet1!$U$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -5447,11 +7824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2110921096"/>
-        <c:axId val="-2111306040"/>
+        <c:axId val="-2137337496"/>
+        <c:axId val="-2137357224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2110921096"/>
+        <c:axId val="-2137337496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5460,7 +7837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111306040"/>
+        <c:crossAx val="-2137357224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5468,7 +7845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2111306040"/>
+        <c:axId val="-2137357224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5479,7 +7856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2110921096"/>
+        <c:crossAx val="-2137337496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5500,7 +7877,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -5511,7 +7888,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="132" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -5522,7 +7899,18 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="132" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="132" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -5533,7 +7921,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9214453" cy="5626934"/>
+    <xdr:ext cx="9217121" cy="5618788"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5560,7 +7948,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9214453" cy="5626934"/>
+    <xdr:ext cx="9217121" cy="5618788"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5587,7 +7975,34 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9214453" cy="5626934"/>
+    <xdr:ext cx="9217121" cy="5618788"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9217121" cy="5618788"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
